--- a/importExample.xlsx
+++ b/importExample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Arco30\прайсы\Для Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\xlsBitrixParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2A9BB1-AC67-4F5B-9EB1-511583ABD331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{10465894-B61E-49FD-A73A-CD965BC8FBDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,10 +401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364E9D03-A225-46D2-A768-F4D41A02A101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="C315" sqref="C315"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3871,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="C315">
-        <v>38.83</v>
+        <v>38.840000000000003</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,7 +3938,7 @@
         <v>576</v>
       </c>
       <c r="C321">
-        <v>14.03</v>
+        <v>14.04</v>
       </c>
     </row>
   </sheetData>

--- a/importExample.xlsx
+++ b/importExample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\xlsBitrixParser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGRAMMS\OpenServer\OSPanel\domains\xlsBitrixParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D640D-BD87-4B35-A693-B900B60C0D76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +425,7 @@
         <v>95</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/importExample.xlsx
+++ b/importExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROGRAMMS\OpenServer\OSPanel\domains\xlsBitrixParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4D640D-BD87-4B35-A693-B900B60C0D76}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20B34C-7A71-465A-B5F7-7391C44FDE6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="F323" sqref="F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3937,6 +3937,17 @@
         <v>14.04</v>
       </c>
     </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
